--- a/biology/Zoologie/Ero_aphana/Ero_aphana.xlsx
+++ b/biology/Zoologie/Ero_aphana/Ero_aphana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ero aphana est une espèce d'araignées aranéomorphes de la famille des Mimetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ero aphana est une espèce d'araignées aranéomorphes de la famille des Mimetidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Afrique du Nord, en Turquie, en Iran et au Kazakhstan[1].
-Elle a été introduite en Chine, au Japon, aux Philippines, en Australie et à La Réunion[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Afrique du Nord, en Turquie, en Iran et au Kazakhstan.
+Elle a été introduite en Chine, au Japon, aux Philippines, en Australie et à La Réunion.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 2,5 mm et les femelles de 3 à 4,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 2,5 mm et les femelles de 3 à 4,2 mm.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea aphana par Walckenaer en 1802. Elle est placée dans le genre Theridion par Walckenaer en 1805[3] puis dans le genre Ero par Simon en 1881[4].
-Ero atomaria[5] a été placée en synonymie par Simon en 1881[4].
-Ero luzonensis[6] a été placée en synonymie par Harms et Harvey en 2009[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea aphana par Walckenaer en 1802. Elle est placée dans le genre Theridion par Walckenaer en 1805 puis dans le genre Ero par Simon en 1881.
+Ero atomaria a été placée en synonymie par Simon en 1881.
+Ero luzonensis a été placée en synonymie par Harms et Harvey en 2009.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Walckenaer, 1802 : Faune parisienne, Insectes. ou Histoire abrégée des insectes des environs de Paris. Paris, vol. 2, p. 187-250 (texte intégral).</t>
         </is>
